--- a/excel/testcases.xlsx
+++ b/excel/testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>编号</t>
   </si>
@@ -64,21 +64,21 @@
     <t>[formcontrolname='password']</t>
   </si>
   <si>
+    <t>判断某元素是否显示</t>
+  </si>
+  <si>
+    <t>登陆：点击登陆</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>判断某元素是否显示</t>
-  </si>
-  <si>
-    <t>登陆：点击登陆</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
     <t>可以加各种判断方法的封装</t>
   </si>
   <si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>int/str/float</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>显示</t>
@@ -104,11 +101,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -127,6 +125,127 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,130 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,25 +277,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,73 +427,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,79 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,24 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -517,6 +497,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,17 +546,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,32 +583,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,137 +603,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +741,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1070,7 +1074,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1132,8 +1136,10 @@
       <c r="F2" s="1">
         <v>18600000000</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="1"/>
@@ -1158,15 +1164,15 @@
       <c r="F3" s="1">
         <v>123456</v>
       </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
         <v>10</v>
@@ -1177,24 +1183,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="10:10">
+    <row r="5" spans="7:10">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" t="s">
         <v>21</v>
       </c>
@@ -1206,21 +1222,36 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="7" spans="7:10">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="10:10">
-      <c r="J7" t="s">
+    <row r="8" spans="7:10">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="10:10">
-      <c r="J8" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/excel/testcases.xlsx
+++ b/excel/testcases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>编号</t>
   </si>
@@ -76,39 +76,125 @@
     <t>button</t>
   </si>
   <si>
-    <t>no</t>
+    <t>等待时间为当前操作后，等待的时间</t>
+  </si>
+  <si>
+    <t>切换：个人控制台</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'个人控制台')]</t>
   </si>
   <si>
     <t>可以加各种判断方法的封装</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>int/str/float</t>
+    <t>切换：发起会议</t>
+  </si>
+  <si>
+    <t>link_text</t>
+  </si>
+  <si>
+    <t>发起会议</t>
   </si>
   <si>
     <t>显示</t>
   </si>
   <si>
+    <t>切换：预约会议</t>
+  </si>
+  <si>
+    <t>label:nth-child(2) &gt; label</t>
+  </si>
+  <si>
     <t>输入内容</t>
   </si>
   <si>
+    <t>清空会议名称</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>appointmentName</t>
+  </si>
+  <si>
+    <t>输入会议名称</t>
+  </si>
+  <si>
+    <t>点击发起会议时间</t>
+  </si>
+  <si>
+    <t>input.ant-calendar-picker-input.ant-input</t>
+  </si>
+  <si>
     <t>输入失败截图</t>
+  </si>
+  <si>
+    <t>选择发起会议时间</t>
+  </si>
+  <si>
+    <t>.ng-star-inserted:nth-child(5) &gt; .ant-calendar-cell:nth-child(1) &gt; .ant-calendar-date</t>
+  </si>
+  <si>
+    <t>选择发起时间</t>
+  </si>
+  <si>
+    <t>input.ant-time-picker-input</t>
+  </si>
+  <si>
+    <t>点击：录制</t>
+  </si>
+  <si>
+    <t>//div[2]/div[4]/label/label</t>
+  </si>
+  <si>
+    <t>点击提交</t>
+  </si>
+  <si>
+    <t>.ant-btn-primary:nth-child(1)</t>
+  </si>
+  <si>
+    <t>点击查看预约会议</t>
+  </si>
+  <si>
+    <t>查看已预约会议</t>
+  </si>
+  <si>
+    <t>点击编辑</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>editMeeting</t>
+  </si>
+  <si>
+    <t>点击：创建实时会议</t>
+  </si>
+  <si>
+    <t>进入实时会议</t>
+  </si>
+  <si>
+    <t>入会</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,11 +203,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="13.5"/>
-      <color rgb="FF808080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -131,22 +224,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,38 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,58 +340,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -277,13 +356,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,37 +488,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,108 +537,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,21 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,6 +591,44 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,40 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,154 +682,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1071,15 +1138,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="36.125" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
@@ -1117,7 +1184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1130,22 +1197,22 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>18600000000</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" ht="18" spans="1:14">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1158,27 +1225,24 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>123456</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="18" spans="1:10">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1191,68 +1255,503 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="7:10">
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="5:10">
-      <c r="E6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>123321</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" ht="27" spans="1:10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:10">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="7:10">
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="7:10">
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/excel/testcases.xlsx
+++ b/excel/testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="12300" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>编号</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>等待时间为当前操作后，等待的时间</t>
+  </si>
+  <si>
+    <t>点击预约会议管理</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>ng-star-inserted active</t>
+  </si>
+  <si>
+    <t>点击第一个删除</t>
+  </si>
+  <si>
+    <t>.ng-star-inserted:nth-child(1) .text-left .btn</t>
   </si>
   <si>
     <t>切换：个人控制台</t>
@@ -194,7 +209,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,22 +218,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +247,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,106 +367,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -356,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,21 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,11 +603,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,18 +651,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,17 +675,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,154 +691,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1138,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1272,9 +1296,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1284,64 +1306,50 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
@@ -1352,24 +1360,24 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -1379,27 +1387,27 @@
         <v>13</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="1">
-        <v>123321</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -1407,23 +1415,25 @@
         <v>13</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" ht="27" spans="1:10">
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -1433,27 +1443,27 @@
         <v>13</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" ht="40.5" spans="1:10">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>123321</v>
+      </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -1463,9 +1473,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" ht="27" spans="1:10">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -1487,23 +1497,25 @@
         <v>13</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:10">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -1517,10 +1529,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -1529,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
@@ -1543,19 +1555,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -1569,19 +1581,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -1591,25 +1603,23 @@
         <v>13</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1619,25 +1629,23 @@
         <v>13</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1647,23 +1655,25 @@
         <v>13</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -1673,23 +1683,25 @@
         <v>13</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
@@ -1703,19 +1715,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -1729,19 +1741,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -1752,6 +1764,58 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/excel/testcases.xlsx
+++ b/excel/testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12300" windowHeight="5460"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -225,6 +225,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -233,6 +263,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,10 +283,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,89 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -352,21 +354,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -377,31 +377,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,151 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +586,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,9 +633,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,17 +666,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,41 +683,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,37 +703,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,94 +742,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/testcases.xlsx
+++ b/excel/testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="26250" windowHeight="11205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>编号</t>
   </si>
@@ -88,6 +88,9 @@
     <t>ng-star-inserted active</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>点击第一个删除</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>//a[contains(text(),'个人控制台')]</t>
+    <t>//a/span</t>
   </si>
   <si>
     <t>可以加各种判断方法的封装</t>
@@ -166,7 +169,7 @@
     <t>点击：录制</t>
   </si>
   <si>
-    <t>//div[2]/div[4]/label/label</t>
+    <t>//div[4]/label/label</t>
   </si>
   <si>
     <t>点击提交</t>
@@ -204,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,7 +228,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,50 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -291,9 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,29 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -338,6 +349,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -345,28 +370,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -377,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +589,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -601,17 +615,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,37 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +671,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,7 +1168,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1284,7 +1287,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -1296,7 +1299,9 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1311,14 +1316,18 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -1327,29 +1336,31 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
@@ -1360,24 +1371,24 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -1388,15 +1399,15 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1405,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -1416,24 +1427,24 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -1447,19 +1458,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1">
         <v>123321</v>
@@ -1475,10 +1486,10 @@
     </row>
     <row r="12" ht="27" spans="1:10">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -1487,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
@@ -1498,15 +1509,15 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:10">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -1515,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -1529,10 +1540,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -1541,33 +1552,33 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -1581,10 +1592,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
@@ -1593,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -1607,19 +1618,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1633,19 +1644,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1656,15 +1667,15 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1673,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -1684,15 +1695,15 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1701,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
@@ -1715,19 +1726,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -1741,19 +1752,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -1767,10 +1778,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
@@ -1779,7 +1790,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
@@ -1793,19 +1804,19 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
